--- a/question_difficulty_level_result/8.xlsx
+++ b/question_difficulty_level_result/8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,31 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>frequency_occurrence</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>frequency_occurrence_probab</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>max_probab</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>max_probab_percentage</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>recommended_level</t>
         </is>
       </c>
@@ -480,7 +505,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"L3":1}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -510,7 +556,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"L3":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -540,7 +607,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -570,7 +658,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -600,7 +709,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"L2":7,"L3":1}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{"L2":0.875,"L3":0.125}</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -630,7 +760,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -660,7 +811,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{"L2":5,"L1":3}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{"L2":0.625,"L1":0.375}</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -690,7 +862,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{"L2":8}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{"L2":1.0}</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -720,7 +913,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -750,7 +964,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":2}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{"L3":0.75,"L2":0.25}</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -780,7 +1015,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{"L2":6,"L1":2}</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{"L2":0.75,"L1":0.25}</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -810,7 +1066,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -840,7 +1117,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":2}</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{"L3":0.75,"L2":0.25}</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -870,7 +1168,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{"L3":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -900,7 +1219,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -930,7 +1270,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -956,7 +1317,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{"L2":1}</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{"L2":1.0}</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -986,7 +1368,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="n">
+        <v>8</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{"L2":6,"L3":2}</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{"L2":0.75,"L3":0.25}</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1016,7 +1419,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{"L2":6,"L3":2}</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{"L2":0.75,"L3":0.25}</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1043,6 +1467,11 @@
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1068,7 +1497,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{"L2":7,"L1":1}</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>{"L2":0.875,"L1":0.125}</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -1098,7 +1548,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{"L3":1}</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1128,7 +1599,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{"L3":1}</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1158,7 +1650,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>{"L2":7,"L3":1}</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>{"L2":0.875,"L3":0.125}</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1188,7 +1701,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1218,7 +1752,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="n">
+        <v>8</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":2}</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>{"L3":0.75,"L2":0.25}</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1248,7 +1803,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="n">
+        <v>8</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{"L3":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1279,6 +1855,11 @@
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1305,6 +1886,11 @@
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1331,6 +1917,11 @@
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1357,6 +1948,11 @@
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1383,6 +1979,11 @@
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1409,6 +2010,11 @@
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1430,7 +2036,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>{"L2":1}</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>{"L2":1.0}</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -1461,6 +2088,11 @@
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1487,6 +2119,11 @@
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1512,7 +2149,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="n">
+        <v>8</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>{"L1":8}</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>{"L1":1.0}</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
@@ -1542,7 +2200,28 @@
           <t>8</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>{"L1":1}</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>{"L1":1.0}</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
